--- a/data/trans_orig/P17E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3886CFE4-EF4B-43EF-9751-323ADE473772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6306475-E430-436B-830C-730C77CD89DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8C61D8B-29E7-4E6E-A8EE-0B51283186A7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ABE7B802-F608-42BC-82AF-09ADF10DBE06}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="496">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,85%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>25,94%</t>
   </si>
   <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
   </si>
   <si>
     <t>Médico general</t>
@@ -107,28 +107,28 @@
     <t>74,06%</t>
   </si>
   <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
   </si>
   <si>
     <t>80,15%</t>
   </si>
   <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
   </si>
   <si>
     <t>77,73%</t>
   </si>
   <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1399 +140,1393 @@
     <t>23,06%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
   </si>
   <si>
     <t>28,92%</t>
   </si>
   <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
     <t>21,93%</t>
   </si>
   <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>26,65%</t>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,76%)</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>83,25%</t>
   </si>
   <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
   </si>
   <si>
     <t>79,84%</t>
   </si>
   <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,76%)</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
     <t>76,66%</t>
   </si>
   <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
   </si>
 </sst>
 </file>
@@ -1944,7 +1938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4305E196-3328-4180-B39E-B4A372D0B64E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41EDF7F-40C2-4D38-94AC-ABF0BE9AE34D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3163,7 +3157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BBCE43-2DC8-46D9-B355-4EED3F07AFAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488FAC8B-F809-4E20-BE2E-D5A85C484C71}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3463,7 +3457,7 @@
         <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3472,13 +3466,13 @@
         <v>57199</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3487,13 @@
         <v>77701</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>123</v>
@@ -3508,13 +3502,13 @@
         <v>129451</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>198</v>
@@ -3523,13 +3517,13 @@
         <v>207153</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3591,13 @@
         <v>26405</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -3612,13 +3606,13 @@
         <v>41859</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -3627,13 +3621,13 @@
         <v>68264</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3642,13 @@
         <v>101977</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>142</v>
@@ -3663,13 +3657,13 @@
         <v>151833</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>237</v>
@@ -3678,13 +3672,13 @@
         <v>253811</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3761,13 @@
         <v>29968</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -3782,13 +3776,13 @@
         <v>59178</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3797,13 @@
         <v>84526</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>142</v>
@@ -3818,13 +3812,13 @@
         <v>163574</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>216</v>
@@ -3833,13 +3827,13 @@
         <v>248099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3901,13 @@
         <v>25634</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -3922,13 +3916,13 @@
         <v>30564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -3937,13 +3931,13 @@
         <v>56198</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +3952,13 @@
         <v>103636</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
@@ -3973,13 +3967,13 @@
         <v>130083</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>214</v>
@@ -3988,13 +3982,13 @@
         <v>233718</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4056,13 @@
         <v>51386</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -4077,13 +4071,13 @@
         <v>54431</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -4092,13 +4086,13 @@
         <v>105816</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4107,13 @@
         <v>198158</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H20" s="7">
         <v>271</v>
@@ -4128,13 +4122,13 @@
         <v>288835</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>448</v>
@@ -4143,13 +4137,13 @@
         <v>486994</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4211,13 @@
         <v>163088</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>202</v>
@@ -4232,13 +4226,13 @@
         <v>213308</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>354</v>
@@ -4247,13 +4241,13 @@
         <v>376396</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4262,13 @@
         <v>617052</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H23" s="7">
         <v>872</v>
@@ -4283,13 +4277,13 @@
         <v>940156</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M23" s="7">
         <v>1437</v>
@@ -4298,13 +4292,13 @@
         <v>1557208</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,7 +4376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F97A9BA-927F-4E5B-8DFA-8E05B42E66E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D532C7F-EF5F-4AC7-9003-5045A1AD88B4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4399,7 +4393,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4506,13 +4500,13 @@
         <v>10355</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4521,13 +4515,13 @@
         <v>19457</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -4536,13 +4530,13 @@
         <v>29811</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4551,13 @@
         <v>57711</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H5" s="7">
         <v>76</v>
@@ -4572,13 +4566,13 @@
         <v>73880</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M5" s="7">
         <v>132</v>
@@ -4587,13 +4581,13 @@
         <v>131591</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4655,13 @@
         <v>19407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>108</v>
+        <v>232</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>281</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -4676,13 +4670,13 @@
         <v>32518</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -4691,13 +4685,13 @@
         <v>51924</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4706,13 @@
         <v>71848</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>129</v>
@@ -4727,13 +4721,13 @@
         <v>125536</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M8" s="7">
         <v>197</v>
@@ -4742,13 +4736,13 @@
         <v>197384</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4810,13 @@
         <v>29760</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4831,13 +4825,13 @@
         <v>39402</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -4846,13 +4840,13 @@
         <v>69161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,28 +4861,28 @@
         <v>115324</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H11" s="7">
         <v>137</v>
       </c>
       <c r="I11" s="7">
-        <v>134556</v>
+        <v>134555</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M11" s="7">
         <v>242</v>
@@ -4897,13 +4891,13 @@
         <v>249881</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,7 +4924,7 @@
         <v>176</v>
       </c>
       <c r="I12" s="7">
-        <v>173958</v>
+        <v>173957</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4971,13 +4965,13 @@
         <v>28701</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4986,13 +4980,13 @@
         <v>29842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -5001,13 +4995,13 @@
         <v>58543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5016,13 @@
         <v>137638</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -5037,13 +5031,13 @@
         <v>151943</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M14" s="7">
         <v>262</v>
@@ -5052,13 +5046,13 @@
         <v>289581</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5120,13 @@
         <v>25103</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -5141,13 +5135,13 @@
         <v>41819</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -5156,13 +5150,13 @@
         <v>66923</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5171,13 @@
         <v>116905</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -5192,13 +5186,13 @@
         <v>154433</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M17" s="7">
         <v>242</v>
@@ -5207,13 +5201,13 @@
         <v>271338</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5275,13 @@
         <v>42626</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H19" s="7">
         <v>49</v>
@@ -5296,13 +5290,13 @@
         <v>57846</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -5311,13 +5305,13 @@
         <v>100472</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>69</v>
+        <v>351</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5326,13 @@
         <v>196256</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -5347,13 +5341,13 @@
         <v>303088</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M20" s="7">
         <v>464</v>
@@ -5362,7 +5356,7 @@
         <v>499344</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>361</v>
@@ -5454,25 +5448,25 @@
         <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>350</v>
       </c>
       <c r="N22" s="7">
-        <v>376836</v>
+        <v>376835</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5481,13 @@
         <v>695682</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H23" s="7">
         <v>873</v>
@@ -5502,13 +5496,13 @@
         <v>943436</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="M23" s="7">
         <v>1539</v>
@@ -5517,13 +5511,13 @@
         <v>1639118</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,7 +5559,7 @@
         <v>1889</v>
       </c>
       <c r="N24" s="7">
-        <v>2015954</v>
+        <v>2015953</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5601,7 +5595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB021F2A-3A6C-486B-A0AD-AE0647B7EFA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3F29CE-E22D-4B15-B25D-D5AEF41C9F61}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5618,7 +5612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5725,13 +5719,13 @@
         <v>3339</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -5740,13 +5734,13 @@
         <v>28511</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5755,13 +5749,13 @@
         <v>31850</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>108</v>
+        <v>386</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5770,13 @@
         <v>24462</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5791,13 +5785,13 @@
         <v>32844</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -5806,13 +5800,13 @@
         <v>57306</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>116</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5874,13 @@
         <v>13951</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -5895,13 +5889,13 @@
         <v>21133</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -5910,13 +5904,13 @@
         <v>35084</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5925,13 @@
         <v>63974</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H8" s="7">
         <v>79</v>
@@ -5946,13 +5940,13 @@
         <v>98670</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M8" s="7">
         <v>121</v>
@@ -5961,13 +5955,13 @@
         <v>162645</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6029,13 @@
         <v>16663</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>417</v>
+        <v>112</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -6050,13 +6044,13 @@
         <v>35266</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>420</v>
+        <v>297</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -6065,13 +6059,13 @@
         <v>51929</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6080,13 @@
         <v>66144</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>121</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -6101,13 +6095,13 @@
         <v>90095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>306</v>
       </c>
       <c r="M11" s="7">
         <v>193</v>
@@ -6116,13 +6110,13 @@
         <v>156240</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6184,13 @@
         <v>38957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>317</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H13" s="7">
         <v>76</v>
@@ -6205,13 +6199,13 @@
         <v>46992</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -6220,13 +6214,13 @@
         <v>85949</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>433</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6235,13 @@
         <v>94323</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>444</v>
+        <v>325</v>
       </c>
       <c r="H14" s="7">
         <v>195</v>
@@ -6256,13 +6250,13 @@
         <v>136040</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M14" s="7">
         <v>285</v>
@@ -6271,13 +6265,13 @@
         <v>230363</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6339,13 @@
         <v>42050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>445</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -6360,13 +6354,13 @@
         <v>37367</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M16" s="7">
         <v>109</v>
@@ -6375,13 +6369,13 @@
         <v>79417</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6390,13 @@
         <v>104501</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -6411,13 +6405,13 @@
         <v>114248</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M17" s="7">
         <v>296</v>
@@ -6426,13 +6420,13 @@
         <v>218749</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,13 +6494,13 @@
         <v>45862</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>369</v>
+        <v>463</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>467</v>
+        <v>182</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -6515,13 +6509,13 @@
         <v>40744</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -6530,13 +6524,13 @@
         <v>86606</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6545,13 @@
         <v>152547</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>475</v>
+        <v>189</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>378</v>
+        <v>471</v>
       </c>
       <c r="H20" s="7">
         <v>435</v>
@@ -6566,13 +6560,13 @@
         <v>239894</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M20" s="7">
         <v>658</v>
@@ -6581,13 +6575,13 @@
         <v>392440</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6649,13 @@
         <v>160822</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H22" s="7">
         <v>302</v>
@@ -6670,13 +6664,13 @@
         <v>210012</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>482</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M22" s="7">
         <v>475</v>
@@ -6685,13 +6679,13 @@
         <v>370834</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6700,13 @@
         <v>505951</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H23" s="7">
         <v>1048</v>
@@ -6721,13 +6715,13 @@
         <v>711792</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>492</v>
       </c>
       <c r="M23" s="7">
         <v>1585</v>
@@ -6736,13 +6730,13 @@
         <v>1217743</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P17E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6306475-E430-436B-830C-730C77CD89DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD1E46F7-05BD-4395-98C7-68469E20DA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ABE7B802-F608-42BC-82AF-09ADF10DBE06}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{147E09F9-0DD9-4537-95D1-70F38765C292}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="504">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,85%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>25,94%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
   </si>
   <si>
     <t>Médico general</t>
@@ -107,28 +107,28 @@
     <t>74,06%</t>
   </si>
   <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
   </si>
   <si>
     <t>80,15%</t>
   </si>
   <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>77,73%</t>
   </si>
   <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1320 +140,1350 @@
     <t>23,06%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
   </si>
   <si>
     <t>28,92%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
     <t>20,57%</t>
   </si>
   <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
   </si>
   <si>
     <t>79,43%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
   </si>
   <si>
     <t>17,87%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
+    <t>34,79%</t>
   </si>
   <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
   </si>
   <si>
     <t>82,13%</t>
   </si>
   <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,76%)</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
   </si>
   <si>
     <t>22,84%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>77,16%</t>
   </si>
   <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
   </si>
   <si>
     <t>28,55%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
   </si>
   <si>
     <t>71,45%</t>
   </si>
   <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,76%)</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
     <t>81,45%</t>
   </si>
   <si>
@@ -1496,9 +1526,6 @@
     <t>23,34%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
     <t>25,48%</t>
   </si>
   <si>
@@ -1524,9 +1551,6 @@
   </si>
   <si>
     <t>74,52%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
   </si>
 </sst>
 </file>
@@ -1938,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41EDF7F-40C2-4D38-94AC-ABF0BE9AE34D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BDC601-D9C0-45E9-A67B-065A041BD691}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3157,7 +3181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488FAC8B-F809-4E20-BE2E-D5A85C484C71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F5F3D-41A3-4DAA-BA13-C290125DA9D7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3457,7 +3481,7 @@
         <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3466,13 +3490,13 @@
         <v>57199</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3511,13 @@
         <v>77701</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>123</v>
@@ -3502,13 +3526,13 @@
         <v>129451</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>198</v>
@@ -3517,13 +3541,13 @@
         <v>207153</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3615,13 @@
         <v>26405</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -3606,13 +3630,13 @@
         <v>41859</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -3621,13 +3645,13 @@
         <v>68264</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3666,13 @@
         <v>101977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>142</v>
@@ -3657,13 +3681,13 @@
         <v>151833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>237</v>
@@ -3672,13 +3696,13 @@
         <v>253811</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3770,13 @@
         <v>29209</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3761,13 +3785,13 @@
         <v>29968</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -3776,13 +3800,13 @@
         <v>59178</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3821,13 @@
         <v>84526</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>142</v>
@@ -3812,13 +3836,13 @@
         <v>163574</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>216</v>
@@ -3827,13 +3851,13 @@
         <v>248099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3925,13 @@
         <v>25634</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -3916,13 +3940,13 @@
         <v>30564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -3931,13 +3955,13 @@
         <v>56198</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3976,13 @@
         <v>103636</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
@@ -3967,13 +3991,13 @@
         <v>130083</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>214</v>
@@ -3982,13 +4006,13 @@
         <v>233718</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4080,13 @@
         <v>51386</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -4071,13 +4095,13 @@
         <v>54431</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -4086,13 +4110,13 @@
         <v>105816</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4131,13 @@
         <v>198158</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H20" s="7">
         <v>271</v>
@@ -4122,13 +4146,13 @@
         <v>288835</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>448</v>
@@ -4137,13 +4161,13 @@
         <v>486994</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4235,13 @@
         <v>163088</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H22" s="7">
         <v>202</v>
@@ -4226,13 +4250,13 @@
         <v>213308</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M22" s="7">
         <v>354</v>
@@ -4241,13 +4265,13 @@
         <v>376396</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4286,13 @@
         <v>617052</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c r="H23" s="7">
         <v>872</v>
@@ -4277,13 +4301,13 @@
         <v>940156</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>1437</v>
@@ -4292,13 +4316,13 @@
         <v>1557208</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,7 +4400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D532C7F-EF5F-4AC7-9003-5045A1AD88B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37275F0-C54B-4467-BEE9-3CBE598BBA27}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4393,7 +4417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4500,13 +4524,13 @@
         <v>10355</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4515,13 +4539,13 @@
         <v>19457</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -4530,13 +4554,13 @@
         <v>29811</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4575,13 @@
         <v>57711</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>76</v>
@@ -4566,13 +4590,13 @@
         <v>73880</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>132</v>
@@ -4581,13 +4605,13 @@
         <v>131591</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4679,13 @@
         <v>19407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>284</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -4670,13 +4694,13 @@
         <v>32518</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -4685,13 +4709,13 @@
         <v>51924</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4730,13 @@
         <v>71848</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>293</v>
       </c>
       <c r="H8" s="7">
         <v>129</v>
@@ -4721,13 +4745,13 @@
         <v>125536</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>197</v>
@@ -4736,13 +4760,13 @@
         <v>197384</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4834,13 @@
         <v>29760</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4825,13 +4849,13 @@
         <v>39402</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -4840,13 +4864,13 @@
         <v>69161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4885,13 @@
         <v>115324</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>137</v>
@@ -4876,13 +4900,13 @@
         <v>134555</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>242</v>
@@ -4891,13 +4915,13 @@
         <v>249881</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4989,13 @@
         <v>28701</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4980,13 +5004,13 @@
         <v>29842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -4995,13 +5019,13 @@
         <v>58543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5040,13 @@
         <v>137638</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -5031,13 +5055,13 @@
         <v>151943</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M14" s="7">
         <v>262</v>
@@ -5046,13 +5070,13 @@
         <v>289581</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5144,13 @@
         <v>25103</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -5135,13 +5159,13 @@
         <v>41819</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -5150,13 +5174,13 @@
         <v>66923</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5195,13 @@
         <v>116905</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -5186,13 +5210,13 @@
         <v>154433</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>242</v>
@@ -5201,13 +5225,13 @@
         <v>271338</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5299,13 @@
         <v>42626</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>49</v>
@@ -5290,13 +5314,13 @@
         <v>57846</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>349</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -5305,13 +5329,13 @@
         <v>100472</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5350,13 @@
         <v>196256</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -5341,13 +5365,13 @@
         <v>303088</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>359</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>464</v>
@@ -5356,13 +5380,13 @@
         <v>499344</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5454,13 @@
         <v>155952</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>91</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -5445,13 +5469,13 @@
         <v>220884</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M22" s="7">
         <v>350</v>
@@ -5460,13 +5484,13 @@
         <v>376835</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5505,13 @@
         <v>695682</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>371</v>
+        <v>101</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H23" s="7">
         <v>873</v>
@@ -5496,13 +5520,13 @@
         <v>943436</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="M23" s="7">
         <v>1539</v>
@@ -5511,13 +5535,13 @@
         <v>1639118</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,7 +5619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3F29CE-E22D-4B15-B25D-D5AEF41C9F61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF90D8C-5455-4EF9-AEED-378CFD1546C7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5612,7 +5636,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5719,13 +5743,13 @@
         <v>3339</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -5734,13 +5758,13 @@
         <v>28511</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5749,13 +5773,13 @@
         <v>31850</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5794,13 @@
         <v>24462</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5785,13 +5809,13 @@
         <v>32844</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -5800,13 +5824,13 @@
         <v>57306</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5898,13 @@
         <v>13951</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -5889,13 +5913,13 @@
         <v>21133</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -5904,13 +5928,13 @@
         <v>35084</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5949,13 @@
         <v>63974</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="H8" s="7">
         <v>79</v>
@@ -5940,13 +5964,13 @@
         <v>98670</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M8" s="7">
         <v>121</v>
@@ -5955,13 +5979,13 @@
         <v>162645</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6053,13 @@
         <v>16663</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>112</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -6044,13 +6068,13 @@
         <v>35266</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -6059,13 +6083,13 @@
         <v>51929</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,10 +6104,10 @@
         <v>66144</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>121</v>
@@ -6095,13 +6119,13 @@
         <v>90095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="M11" s="7">
         <v>193</v>
@@ -6110,13 +6134,13 @@
         <v>156240</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,13 +6208,13 @@
         <v>38957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>317</v>
+        <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>76</v>
@@ -6199,13 +6223,13 @@
         <v>46992</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -6214,13 +6238,13 @@
         <v>85949</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6259,13 @@
         <v>94323</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>325</v>
+        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>195</v>
@@ -6250,13 +6274,13 @@
         <v>136040</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>285</v>
@@ -6265,13 +6289,13 @@
         <v>230363</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,13 +6363,13 @@
         <v>42050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -6354,13 +6378,13 @@
         <v>37367</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="M16" s="7">
         <v>109</v>
@@ -6369,13 +6393,13 @@
         <v>79417</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6414,13 @@
         <v>104501</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -6405,13 +6429,13 @@
         <v>114248</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="M17" s="7">
         <v>296</v>
@@ -6420,13 +6444,13 @@
         <v>218749</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,13 +6518,13 @@
         <v>45862</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>182</v>
+        <v>472</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -6509,13 +6533,13 @@
         <v>40744</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -6524,13 +6548,13 @@
         <v>86606</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6569,13 @@
         <v>152547</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>189</v>
+        <v>480</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="H20" s="7">
         <v>435</v>
@@ -6560,13 +6584,13 @@
         <v>239894</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="M20" s="7">
         <v>658</v>
@@ -6575,13 +6599,13 @@
         <v>392440</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6673,13 @@
         <v>160822</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="H22" s="7">
         <v>302</v>
@@ -6664,13 +6688,13 @@
         <v>210012</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="M22" s="7">
         <v>475</v>
@@ -6679,13 +6703,13 @@
         <v>370834</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>485</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6724,13 @@
         <v>505951</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="H23" s="7">
         <v>1048</v>
@@ -6715,13 +6739,13 @@
         <v>711792</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="M23" s="7">
         <v>1585</v>
@@ -6730,13 +6754,13 @@
         <v>1217743</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>495</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P17E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD1E46F7-05BD-4395-98C7-68469E20DA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF0C3A7-E5E0-40AB-BF1B-01076B445222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{147E09F9-0DD9-4537-95D1-70F38765C292}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB3B8411-4611-4E4E-9CCD-9DDF33273B49}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,85%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>25,94%</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
   </si>
   <si>
     <t>Médico general</t>
@@ -107,28 +107,28 @@
     <t>74,06%</t>
   </si>
   <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
   </si>
   <si>
     <t>80,15%</t>
   </si>
   <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
   </si>
   <si>
     <t>77,73%</t>
   </si>
   <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,16 +140,16 @@
     <t>23,06%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
   </si>
   <si>
     <t>28,92%</t>
   </si>
   <si>
-    <t>21,25%</t>
+    <t>21,93%</t>
   </si>
   <si>
     <t>36,68%</t>
@@ -158,19 +158,19 @@
     <t>27,01%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>76,94%</t>
   </si>
   <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>71,08%</t>
@@ -179,16 +179,16 @@
     <t>63,32%</t>
   </si>
   <si>
-    <t>78,75%</t>
+    <t>78,07%</t>
   </si>
   <si>
     <t>72,99%</t>
   </si>
   <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,49 +197,49 @@
     <t>23,41%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
   </si>
   <si>
     <t>23,18%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
   </si>
   <si>
     <t>76,59%</t>
   </si>
   <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
   </si>
   <si>
     <t>76,82%</t>
   </si>
   <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -248,1216 +248,1201 @@
     <t>26,65%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
   </si>
   <si>
     <t>27,52%</t>
   </si>
   <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
     <t>21,72%</t>
   </si>
   <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
   </si>
   <si>
     <t>78,28%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,76%)</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>81,69%</t>
   </si>
   <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
   </si>
   <si>
     <t>27,0%</t>
   </si>
   <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
   </si>
   <si>
     <t>73,0%</t>
   </si>
   <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,76%)</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
     <t>64,28%</t>
   </si>
   <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
+    <t>48,25%</t>
   </si>
   <si>
     <t>17,9%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
   </si>
   <si>
     <t>17,64%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
   </si>
   <si>
     <t>17,74%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
   </si>
   <si>
     <t>82,1%</t>
   </si>
   <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>82,36%</t>
   </si>
   <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>82,26%</t>
   </si>
   <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>20,12%</t>
   </si>
   <si>
-    <t>31,29%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
   </si>
   <si>
     <t>28,13%</t>
   </si>
   <si>
-    <t>35,13%</t>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
   </si>
   <si>
     <t>24,95%</t>
   </si>
   <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
   </si>
   <si>
     <t>79,88%</t>
   </si>
   <si>
-    <t>68,71%</t>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>71,87%</t>
   </si>
   <si>
-    <t>64,87%</t>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
   </si>
   <si>
     <t>75,05%</t>
   </si>
   <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
   </si>
   <si>
     <t>29,23%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
   </si>
   <si>
     <t>25,67%</t>
   </si>
   <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
   </si>
   <si>
     <t>70,77%</t>
   </si>
   <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
   </si>
   <si>
     <t>74,33%</t>
   </si>
   <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
   </si>
   <si>
     <t>28,69%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>36,47%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
   </si>
   <si>
     <t>26,64%</t>
   </si>
   <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
+    <t>63,53%</t>
   </si>
   <si>
     <t>75,35%</t>
   </si>
   <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
   </si>
   <si>
     <t>73,36%</t>
   </si>
   <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>23,11%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
+    <t>28,62%</t>
   </si>
   <si>
     <t>14,52%</t>
@@ -1466,91 +1451,88 @@
     <t>11,6%</t>
   </si>
   <si>
-    <t>18,03%</t>
+    <t>18,35%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
-    <t>15,38%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
   </si>
   <si>
     <t>20,97%</t>
   </si>
   <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
   </si>
   <si>
     <t>79,03%</t>
   </si>
   <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
     <t>77,22%</t>
   </si>
   <si>
     <t>74,48%</t>
   </si>
   <si>
-    <t>79,84%</t>
-  </si>
-  <si>
     <t>76,66%</t>
   </si>
   <si>
-    <t>74,52%</t>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
   </si>
 </sst>
 </file>
@@ -1962,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BDC601-D9C0-45E9-A67B-065A041BD691}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE66AAD7-34E1-42E8-AF82-39EB3656D1B9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3181,7 +3163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F5F3D-41A3-4DAA-BA13-C290125DA9D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87197F47-C45C-4792-86C2-ACFB63884A5F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3645,13 +3627,13 @@
         <v>68264</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3648,13 @@
         <v>101977</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>142</v>
@@ -3681,13 +3663,13 @@
         <v>151833</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>237</v>
@@ -3696,13 +3678,13 @@
         <v>253811</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3752,13 @@
         <v>29209</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3785,13 +3767,13 @@
         <v>29968</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -3800,13 +3782,13 @@
         <v>59178</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3803,13 @@
         <v>84526</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>142</v>
@@ -3836,13 +3818,13 @@
         <v>163574</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M14" s="7">
         <v>216</v>
@@ -3851,13 +3833,13 @@
         <v>248099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3907,13 @@
         <v>25634</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -3940,13 +3922,13 @@
         <v>30564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -3955,13 +3937,13 @@
         <v>56198</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +3958,13 @@
         <v>103636</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
@@ -3991,13 +3973,13 @@
         <v>130083</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>214</v>
@@ -4006,13 +3988,13 @@
         <v>233718</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4062,13 @@
         <v>51386</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -4095,13 +4077,13 @@
         <v>54431</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -4110,13 +4092,13 @@
         <v>105816</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4113,13 @@
         <v>198158</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H20" s="7">
         <v>271</v>
@@ -4146,13 +4128,13 @@
         <v>288835</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>448</v>
@@ -4161,13 +4143,13 @@
         <v>486994</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4217,13 @@
         <v>163088</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>202</v>
@@ -4250,13 +4232,13 @@
         <v>213308</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>354</v>
@@ -4265,13 +4247,13 @@
         <v>376396</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4268,13 @@
         <v>617052</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>141</v>
+        <v>255</v>
       </c>
       <c r="H23" s="7">
         <v>872</v>
@@ -4301,13 +4283,13 @@
         <v>940156</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>1437</v>
@@ -4316,13 +4298,13 @@
         <v>1557208</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,7 +4382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37275F0-C54B-4467-BEE9-3CBE598BBA27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D961B8D-E445-4423-AC32-968DBFFEF661}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4417,7 +4399,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4524,13 +4506,13 @@
         <v>10355</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4539,13 +4521,13 @@
         <v>19457</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -4554,13 +4536,13 @@
         <v>29811</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4557,13 @@
         <v>57711</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>76</v>
@@ -4590,13 +4572,13 @@
         <v>73880</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>132</v>
@@ -4605,13 +4587,13 @@
         <v>131591</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4661,13 @@
         <v>19407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>108</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -4697,10 +4679,10 @@
         <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -4709,13 +4691,13 @@
         <v>51924</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4712,13 @@
         <v>71848</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>291</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H8" s="7">
         <v>129</v>
@@ -4745,13 +4727,13 @@
         <v>125536</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M8" s="7">
         <v>197</v>
@@ -4760,13 +4742,13 @@
         <v>197384</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4816,13 @@
         <v>29760</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4849,13 +4831,13 @@
         <v>39402</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -4864,13 +4846,13 @@
         <v>69161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,28 +4867,28 @@
         <v>115324</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H11" s="7">
         <v>137</v>
       </c>
       <c r="I11" s="7">
-        <v>134555</v>
+        <v>134556</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M11" s="7">
         <v>242</v>
@@ -4915,13 +4897,13 @@
         <v>249881</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,7 +4930,7 @@
         <v>176</v>
       </c>
       <c r="I12" s="7">
-        <v>173957</v>
+        <v>173958</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4989,13 +4971,13 @@
         <v>28701</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -5004,13 +4986,13 @@
         <v>29842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -5019,13 +5001,13 @@
         <v>58543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>324</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5022,13 @@
         <v>137638</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>257</v>
+        <v>322</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -5055,13 +5037,13 @@
         <v>151943</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M14" s="7">
         <v>262</v>
@@ -5070,13 +5052,13 @@
         <v>289581</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5126,13 @@
         <v>25103</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -5159,13 +5141,13 @@
         <v>41819</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -5174,13 +5156,13 @@
         <v>66923</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5177,13 @@
         <v>116905</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -5210,13 +5192,13 @@
         <v>154433</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M17" s="7">
         <v>242</v>
@@ -5225,13 +5207,13 @@
         <v>271338</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5281,13 @@
         <v>42626</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H19" s="7">
         <v>49</v>
@@ -5314,13 +5296,13 @@
         <v>57846</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>351</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -5329,13 +5311,13 @@
         <v>100472</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>356</v>
+        <v>69</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5332,13 @@
         <v>196256</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -5365,13 +5347,13 @@
         <v>303088</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>360</v>
       </c>
       <c r="M20" s="7">
         <v>464</v>
@@ -5380,13 +5362,13 @@
         <v>499344</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5436,13 @@
         <v>155952</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -5469,28 +5451,28 @@
         <v>220884</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>350</v>
       </c>
       <c r="N22" s="7">
-        <v>376835</v>
+        <v>376836</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5487,13 @@
         <v>695682</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>101</v>
+        <v>372</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H23" s="7">
         <v>873</v>
@@ -5520,13 +5502,13 @@
         <v>943436</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M23" s="7">
         <v>1539</v>
@@ -5535,13 +5517,13 @@
         <v>1639118</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,7 +5565,7 @@
         <v>1889</v>
       </c>
       <c r="N24" s="7">
-        <v>2015953</v>
+        <v>2015954</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5619,7 +5601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF90D8C-5455-4EF9-AEED-378CFD1546C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1612FB05-7472-4BA2-BFC7-E8532E215C59}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5636,7 +5618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5743,13 +5725,13 @@
         <v>3339</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -5758,13 +5740,13 @@
         <v>28511</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5773,13 +5755,13 @@
         <v>31850</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>391</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5776,13 @@
         <v>24462</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5809,13 +5791,13 @@
         <v>32844</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -5824,13 +5806,13 @@
         <v>57306</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5880,13 @@
         <v>13951</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -5913,13 +5895,13 @@
         <v>21133</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -5928,13 +5910,13 @@
         <v>35084</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5931,13 @@
         <v>63974</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H8" s="7">
         <v>79</v>
@@ -5964,13 +5946,13 @@
         <v>98670</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M8" s="7">
         <v>121</v>
@@ -5979,13 +5961,13 @@
         <v>162645</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6035,13 @@
         <v>16663</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>112</v>
+        <v>417</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -6068,13 +6050,13 @@
         <v>35266</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>420</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -6083,13 +6065,13 @@
         <v>51929</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6086,13 @@
         <v>66144</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -6119,13 +6101,13 @@
         <v>90095</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M11" s="7">
         <v>193</v>
@@ -6238,13 +6220,13 @@
         <v>85949</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6241,13 @@
         <v>94323</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>195</v>
@@ -6274,13 +6256,13 @@
         <v>136040</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>285</v>
@@ -6289,13 +6271,13 @@
         <v>230363</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,13 +6345,13 @@
         <v>42050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -6378,13 +6360,13 @@
         <v>37367</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M16" s="7">
         <v>109</v>
@@ -6393,13 +6375,13 @@
         <v>79417</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6396,13 @@
         <v>104501</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -6429,13 +6411,13 @@
         <v>114248</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>296</v>
@@ -6444,13 +6426,13 @@
         <v>218749</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,13 +6500,13 @@
         <v>45862</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>471</v>
+        <v>369</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -6533,13 +6515,13 @@
         <v>40744</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -6548,13 +6530,13 @@
         <v>86606</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6551,13 @@
         <v>152547</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>481</v>
+        <v>378</v>
       </c>
       <c r="H20" s="7">
         <v>435</v>
@@ -6584,13 +6566,13 @@
         <v>239894</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M20" s="7">
         <v>658</v>
@@ -6599,13 +6581,13 @@
         <v>392440</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6655,13 @@
         <v>160822</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H22" s="7">
         <v>302</v>
@@ -6688,13 +6670,13 @@
         <v>210012</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>492</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="M22" s="7">
         <v>475</v>
@@ -6703,13 +6685,13 @@
         <v>370834</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>36</v>
+        <v>488</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6706,13 @@
         <v>505951</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="H23" s="7">
         <v>1048</v>
@@ -6739,13 +6721,13 @@
         <v>711792</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>501</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1585</v>
@@ -6754,13 +6736,13 @@
         <v>1217743</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>46</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P17E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF0C3A7-E5E0-40AB-BF1B-01076B445222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CC6305B-6FEF-4F21-8BC8-2DF85CBD5FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB3B8411-4611-4E4E-9CCD-9DDF33273B49}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1D2F35BE-02F2-4A67-9A03-85A92D520220}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="555">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,85%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Otros</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>23,06%</t>
@@ -191,7 +191,7 @@
     <t>78,81%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>23,41%</t>
@@ -242,7 +242,7 @@
     <t>81,6%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>26,65%</t>
@@ -299,7 +299,7 @@
     <t>78,22%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>14,09%</t>
@@ -356,555 +356,648 @@
     <t>85,05%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,76%)</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
   </si>
   <si>
     <t>21,27%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
   </si>
   <si>
     <t>78,73%</t>
   </si>
   <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,76%)</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
     <t>69,52%</t>
   </si>
   <si>
@@ -1082,52 +1175,106 @@
     <t>84,64%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
   </si>
   <si>
     <t>18,31%</t>
@@ -1187,352 +1334,376 @@
     <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
   </si>
   <si>
-    <t>12,01%</t>
+    <t>10,5%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
   </si>
   <si>
     <t>71,96%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
   </si>
 </sst>
 </file>
@@ -1944,8 +2115,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE66AAD7-34E1-42E8-AF82-39EB3656D1B9}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77224725-D554-4979-AAA3-EA6150B12AFD}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2837,10 +3008,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>37396</v>
+        <v>27494</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2852,10 +3023,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I19" s="7">
-        <v>29363</v>
+        <v>17989</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2867,10 +3038,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="N19" s="7">
-        <v>66759</v>
+        <v>45483</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2888,10 +3059,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="D20" s="7">
-        <v>190721</v>
+        <v>107428</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2903,10 +3074,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>294</v>
+        <v>156</v>
       </c>
       <c r="I20" s="7">
-        <v>300137</v>
+        <v>143348</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2918,10 +3089,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>495</v>
+        <v>268</v>
       </c>
       <c r="N20" s="7">
-        <v>490858</v>
+        <v>250776</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2939,10 +3110,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="D21" s="7">
-        <v>228117</v>
+        <v>134922</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2954,10 +3125,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>322</v>
+        <v>175</v>
       </c>
       <c r="I21" s="7">
-        <v>329500</v>
+        <v>161337</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2969,10 +3140,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>562</v>
+        <v>315</v>
       </c>
       <c r="N21" s="7">
-        <v>557617</v>
+        <v>296259</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2986,55 +3157,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7">
+        <v>9901</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="7">
+        <v>9</v>
+      </c>
+      <c r="I22" s="7">
+        <v>11374</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="7">
-        <v>130371</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="7">
-        <v>202</v>
-      </c>
-      <c r="I22" s="7">
-        <v>210854</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="M22" s="7">
-        <v>332</v>
+        <v>20</v>
       </c>
       <c r="N22" s="7">
-        <v>341225</v>
+        <v>21275</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,49 +3214,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>531</v>
+        <v>89</v>
       </c>
       <c r="D23" s="7">
-        <v>528931</v>
+        <v>83294</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>820</v>
+        <v>138</v>
       </c>
       <c r="I23" s="7">
-        <v>837516</v>
+        <v>156789</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>1351</v>
+        <v>227</v>
       </c>
       <c r="N23" s="7">
-        <v>1366447</v>
+        <v>240083</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,63 +3265,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>100</v>
+      </c>
+      <c r="D24" s="7">
+        <v>93195</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>147</v>
+      </c>
+      <c r="I24" s="7">
+        <v>168163</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>247</v>
+      </c>
+      <c r="N24" s="7">
+        <v>261358</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>130</v>
+      </c>
+      <c r="D25" s="7">
+        <v>130371</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>202</v>
+      </c>
+      <c r="I25" s="7">
+        <v>210854</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>332</v>
+      </c>
+      <c r="N25" s="7">
+        <v>341225</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>531</v>
+      </c>
+      <c r="D26" s="7">
+        <v>528931</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>820</v>
+      </c>
+      <c r="I26" s="7">
+        <v>837516</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1351</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1366447</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>661</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>659302</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1022</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1048370</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>1683</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>1707672</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3163,8 +3490,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87197F47-C45C-4792-86C2-ACFB63884A5F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D25B0B3-F284-49E6-A92D-12C38A1E1726}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3180,7 +3507,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3287,13 +3614,13 @@
         <v>7891</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -3302,13 +3629,13 @@
         <v>21851</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3317,13 +3644,13 @@
         <v>29742</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3665,13 @@
         <v>51053</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>73</v>
@@ -3353,13 +3680,13 @@
         <v>76379</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>124</v>
@@ -3368,13 +3695,13 @@
         <v>127432</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3769,13 @@
         <v>22564</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -3457,28 +3784,28 @@
         <v>34635</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>57199</v>
+        <v>57198</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3820,13 @@
         <v>77701</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>123</v>
@@ -3508,13 +3835,13 @@
         <v>129451</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>198</v>
@@ -3523,13 +3850,13 @@
         <v>207153</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,7 +3898,7 @@
         <v>252</v>
       </c>
       <c r="N9" s="7">
-        <v>264352</v>
+        <v>264351</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3597,13 +3924,13 @@
         <v>26405</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -3612,13 +3939,13 @@
         <v>41859</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -3633,7 +3960,7 @@
         <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3975,13 @@
         <v>101977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>142</v>
@@ -3663,13 +3990,13 @@
         <v>151833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>237</v>
@@ -3681,7 +4008,7 @@
         <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>79</v>
@@ -3752,13 +4079,13 @@
         <v>29209</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3767,13 +4094,13 @@
         <v>29968</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -3782,10 +4109,10 @@
         <v>59178</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>95</v>
@@ -3803,13 +4130,13 @@
         <v>84526</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>142</v>
@@ -3818,13 +4145,13 @@
         <v>163574</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>216</v>
@@ -3833,13 +4160,13 @@
         <v>248099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,10 +4234,10 @@
         <v>25634</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>74</v>
@@ -3922,13 +4249,13 @@
         <v>30564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -3937,13 +4264,13 @@
         <v>56198</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +4285,13 @@
         <v>103636</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
@@ -3973,13 +4300,13 @@
         <v>130083</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>214</v>
@@ -3988,13 +4315,13 @@
         <v>233718</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,49 +4383,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7">
-        <v>51386</v>
+        <v>33845</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I19" s="7">
-        <v>54431</v>
+        <v>30405</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="M19" s="7">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="N19" s="7">
-        <v>105816</v>
+        <v>64249</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,49 +4434,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="D20" s="7">
-        <v>198158</v>
+        <v>101420</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
-        <v>271</v>
+        <v>123</v>
       </c>
       <c r="I20" s="7">
-        <v>288835</v>
+        <v>123418</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
-        <v>448</v>
+        <v>215</v>
       </c>
       <c r="N20" s="7">
-        <v>486994</v>
+        <v>224838</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,10 +4485,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>224</v>
+        <v>123</v>
       </c>
       <c r="D21" s="7">
-        <v>249544</v>
+        <v>135265</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4173,10 +4500,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>323</v>
+        <v>153</v>
       </c>
       <c r="I21" s="7">
-        <v>343266</v>
+        <v>153823</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4188,10 +4515,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>547</v>
+        <v>276</v>
       </c>
       <c r="N21" s="7">
-        <v>592810</v>
+        <v>289087</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4205,55 +4532,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="D22" s="7">
-        <v>163088</v>
+        <v>17541</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="H22" s="7">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="I22" s="7">
-        <v>213308</v>
+        <v>24026</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="M22" s="7">
-        <v>354</v>
+        <v>38</v>
       </c>
       <c r="N22" s="7">
-        <v>376396</v>
+        <v>41567</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,49 +4589,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>565</v>
+        <v>85</v>
       </c>
       <c r="D23" s="7">
-        <v>617052</v>
+        <v>96739</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="H23" s="7">
-        <v>872</v>
+        <v>148</v>
       </c>
       <c r="I23" s="7">
-        <v>940156</v>
+        <v>165418</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="M23" s="7">
-        <v>1437</v>
+        <v>233</v>
       </c>
       <c r="N23" s="7">
-        <v>1557208</v>
+        <v>262156</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,63 +4640,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>101</v>
+      </c>
+      <c r="D24" s="7">
+        <v>114280</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>170</v>
+      </c>
+      <c r="I24" s="7">
+        <v>189444</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>271</v>
+      </c>
+      <c r="N24" s="7">
+        <v>303723</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>152</v>
+      </c>
+      <c r="D25" s="7">
+        <v>163088</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H25" s="7">
+        <v>202</v>
+      </c>
+      <c r="I25" s="7">
+        <v>213308</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M25" s="7">
+        <v>354</v>
+      </c>
+      <c r="N25" s="7">
+        <v>376396</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>565</v>
+      </c>
+      <c r="D26" s="7">
+        <v>617052</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H26" s="7">
+        <v>872</v>
+      </c>
+      <c r="I26" s="7">
+        <v>940156</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1437</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1557208</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>717</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>780140</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1074</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1153464</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>1791</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>1933604</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4382,8 +4865,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D961B8D-E445-4423-AC32-968DBFFEF661}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE9CC9F-B914-43FE-8A5F-623D2B1870E2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4399,7 +4882,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4506,13 +4989,13 @@
         <v>10355</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4521,13 +5004,13 @@
         <v>19457</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -4536,13 +5019,13 @@
         <v>29811</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +5040,13 @@
         <v>57711</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="H5" s="7">
         <v>76</v>
@@ -4572,13 +5055,13 @@
         <v>73880</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="M5" s="7">
         <v>132</v>
@@ -4587,13 +5070,13 @@
         <v>131591</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +5144,13 @@
         <v>19407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>108</v>
+        <v>310</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -4676,13 +5159,13 @@
         <v>32518</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -4691,13 +5174,13 @@
         <v>51924</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +5195,13 @@
         <v>71848</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>318</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="H8" s="7">
         <v>129</v>
@@ -4727,13 +5210,13 @@
         <v>125536</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="M8" s="7">
         <v>197</v>
@@ -4742,13 +5225,13 @@
         <v>197384</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +5299,13 @@
         <v>29760</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4831,13 +5314,13 @@
         <v>39402</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -4846,13 +5329,13 @@
         <v>69161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,28 +5350,28 @@
         <v>115324</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="H11" s="7">
         <v>137</v>
       </c>
       <c r="I11" s="7">
-        <v>134556</v>
+        <v>134555</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="M11" s="7">
         <v>242</v>
@@ -4897,13 +5380,13 @@
         <v>249881</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,7 +5413,7 @@
         <v>176</v>
       </c>
       <c r="I12" s="7">
-        <v>173958</v>
+        <v>173957</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4971,13 +5454,13 @@
         <v>28701</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4986,13 +5469,13 @@
         <v>29842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -5001,13 +5484,13 @@
         <v>58543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5505,13 @@
         <v>137638</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -5037,13 +5520,13 @@
         <v>151943</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>262</v>
@@ -5052,13 +5535,13 @@
         <v>289581</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5609,13 @@
         <v>25103</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -5141,13 +5624,13 @@
         <v>41819</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -5156,13 +5639,13 @@
         <v>66923</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5660,13 @@
         <v>116905</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -5192,13 +5675,13 @@
         <v>154433</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>242</v>
@@ -5207,13 +5690,13 @@
         <v>271338</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,49 +5758,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>42626</v>
+        <v>26432</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="H19" s="7">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I19" s="7">
-        <v>57846</v>
+        <v>30220</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="M19" s="7">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="N19" s="7">
-        <v>100472</v>
+        <v>56652</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>69</v>
+        <v>384</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,49 +5809,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="D20" s="7">
-        <v>196256</v>
+        <v>104724</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="H20" s="7">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="I20" s="7">
-        <v>303088</v>
+        <v>155475</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
-        <v>464</v>
+        <v>247</v>
       </c>
       <c r="N20" s="7">
-        <v>499344</v>
+        <v>260199</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,10 +5860,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c r="D21" s="7">
-        <v>238882</v>
+        <v>131156</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5392,10 +5875,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>304</v>
+        <v>173</v>
       </c>
       <c r="I21" s="7">
-        <v>360934</v>
+        <v>185695</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5407,10 +5890,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>557</v>
+        <v>301</v>
       </c>
       <c r="N21" s="7">
-        <v>599816</v>
+        <v>316851</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5424,55 +5907,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>155952</v>
+        <v>16194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="H22" s="7">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="I22" s="7">
-        <v>220884</v>
+        <v>27626</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="M22" s="7">
-        <v>350</v>
+        <v>39</v>
       </c>
       <c r="N22" s="7">
-        <v>376836</v>
+        <v>43820</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,49 +5964,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>666</v>
+        <v>107</v>
       </c>
       <c r="D23" s="7">
-        <v>695682</v>
+        <v>91532</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="H23" s="7">
-        <v>873</v>
+        <v>110</v>
       </c>
       <c r="I23" s="7">
-        <v>943436</v>
+        <v>147613</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="M23" s="7">
-        <v>1539</v>
+        <v>217</v>
       </c>
       <c r="N23" s="7">
-        <v>1639118</v>
+        <v>239145</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,63 +6015,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>125</v>
+      </c>
+      <c r="D24" s="7">
+        <v>107726</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>131</v>
+      </c>
+      <c r="I24" s="7">
+        <v>175239</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>256</v>
+      </c>
+      <c r="N24" s="7">
+        <v>282965</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>146</v>
+      </c>
+      <c r="D25" s="7">
+        <v>155952</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H25" s="7">
+        <v>204</v>
+      </c>
+      <c r="I25" s="7">
+        <v>220884</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M25" s="7">
+        <v>350</v>
+      </c>
+      <c r="N25" s="7">
+        <v>376835</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>666</v>
+      </c>
+      <c r="D26" s="7">
+        <v>695682</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H26" s="7">
+        <v>873</v>
+      </c>
+      <c r="I26" s="7">
+        <v>943436</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1539</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1639118</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>812</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>851634</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1077</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1164320</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>1889</v>
       </c>
-      <c r="N24" s="7">
-        <v>2015954</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>2015953</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5601,8 +6240,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1612FB05-7472-4BA2-BFC7-E8532E215C59}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2E336B-AC7A-4EC2-B25D-DF0596AD3B99}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5618,7 +6257,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5722,46 +6361,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>3339</v>
+        <v>3278</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>28511</v>
+        <v>25016</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>386</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>31850</v>
+        <v>28294</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>108</v>
+        <v>437</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,46 +6412,46 @@
         <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>24462</v>
+        <v>27932</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>32844</v>
+        <v>30044</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>395</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>57306</v>
+        <v>57976</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>116</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,7 +6463,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>27801</v>
+        <v>31210</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5839,7 +6478,7 @@
         <v>36</v>
       </c>
       <c r="I6" s="7">
-        <v>61355</v>
+        <v>55060</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5854,7 +6493,7 @@
         <v>48</v>
       </c>
       <c r="N6" s="7">
-        <v>89156</v>
+        <v>86270</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5877,46 +6516,46 @@
         <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>13951</v>
+        <v>13635</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>21133</v>
+        <v>19499</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
       </c>
       <c r="N7" s="7">
-        <v>35084</v>
+        <v>33134</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,46 +6567,46 @@
         <v>42</v>
       </c>
       <c r="D8" s="7">
-        <v>63974</v>
+        <v>65009</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="H8" s="7">
         <v>79</v>
       </c>
       <c r="I8" s="7">
-        <v>98670</v>
+        <v>146615</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="M8" s="7">
         <v>121</v>
       </c>
       <c r="N8" s="7">
-        <v>162645</v>
+        <v>211624</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,7 +6618,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="7">
-        <v>77925</v>
+        <v>78644</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5994,7 +6633,7 @@
         <v>101</v>
       </c>
       <c r="I9" s="7">
-        <v>119803</v>
+        <v>166114</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6009,7 +6648,7 @@
         <v>152</v>
       </c>
       <c r="N9" s="7">
-        <v>197729</v>
+        <v>244758</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6032,46 +6671,46 @@
         <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>16663</v>
+        <v>16281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>35266</v>
+        <v>33616</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
       </c>
       <c r="N10" s="7">
-        <v>51929</v>
+        <v>49898</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,46 +6722,46 @@
         <v>61</v>
       </c>
       <c r="D11" s="7">
-        <v>66144</v>
+        <v>63019</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
       </c>
       <c r="I11" s="7">
-        <v>90095</v>
+        <v>84158</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="M11" s="7">
         <v>193</v>
       </c>
       <c r="N11" s="7">
-        <v>156240</v>
+        <v>147177</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,7 +6773,7 @@
         <v>77</v>
       </c>
       <c r="D12" s="7">
-        <v>82807</v>
+        <v>79300</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6149,7 +6788,7 @@
         <v>183</v>
       </c>
       <c r="I12" s="7">
-        <v>125361</v>
+        <v>117774</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6164,7 +6803,7 @@
         <v>260</v>
       </c>
       <c r="N12" s="7">
-        <v>208169</v>
+        <v>197075</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6187,46 +6826,46 @@
         <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>38957</v>
+        <v>37269</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="H13" s="7">
         <v>76</v>
       </c>
       <c r="I13" s="7">
-        <v>46992</v>
+        <v>43969</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>439</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
       </c>
       <c r="N13" s="7">
-        <v>85949</v>
+        <v>81237</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>488</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,46 +6877,46 @@
         <v>90</v>
       </c>
       <c r="D14" s="7">
-        <v>94323</v>
+        <v>88612</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="H14" s="7">
         <v>195</v>
       </c>
       <c r="I14" s="7">
-        <v>136040</v>
+        <v>123877</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>446</v>
+        <v>176</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="M14" s="7">
         <v>285</v>
       </c>
       <c r="N14" s="7">
-        <v>230363</v>
+        <v>212489</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>496</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,7 +6928,7 @@
         <v>126</v>
       </c>
       <c r="D15" s="7">
-        <v>133280</v>
+        <v>125881</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6304,7 +6943,7 @@
         <v>271</v>
       </c>
       <c r="I15" s="7">
-        <v>183032</v>
+        <v>167846</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6319,7 +6958,7 @@
         <v>397</v>
       </c>
       <c r="N15" s="7">
-        <v>316312</v>
+        <v>293726</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6342,46 +6981,46 @@
         <v>44</v>
       </c>
       <c r="D16" s="7">
-        <v>42050</v>
+        <v>39822</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
       </c>
       <c r="I16" s="7">
-        <v>37367</v>
+        <v>34636</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>452</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>453</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="M16" s="7">
         <v>109</v>
       </c>
       <c r="N16" s="7">
-        <v>79417</v>
+        <v>74457</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,46 +7032,46 @@
         <v>110</v>
       </c>
       <c r="D17" s="7">
-        <v>104501</v>
+        <v>98813</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>508</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
       </c>
       <c r="I17" s="7">
-        <v>114248</v>
+        <v>103776</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
         <v>296</v>
       </c>
       <c r="N17" s="7">
-        <v>218749</v>
+        <v>202590</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>510</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>511</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,7 +7083,7 @@
         <v>154</v>
       </c>
       <c r="D18" s="7">
-        <v>146551</v>
+        <v>138635</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6459,7 +7098,7 @@
         <v>251</v>
       </c>
       <c r="I18" s="7">
-        <v>151615</v>
+        <v>138412</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6474,7 +7113,7 @@
         <v>405</v>
       </c>
       <c r="N18" s="7">
-        <v>298166</v>
+        <v>277047</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6494,49 +7133,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7">
-        <v>45862</v>
+        <v>23594</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>513</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>369</v>
+        <v>514</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>467</v>
+        <v>515</v>
       </c>
       <c r="H19" s="7">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="I19" s="7">
-        <v>40744</v>
+        <v>18642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>468</v>
+        <v>516</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="M19" s="7">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="N19" s="7">
-        <v>86606</v>
+        <v>42237</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>518</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>472</v>
+        <v>519</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>473</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,49 +7184,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="D20" s="7">
-        <v>152547</v>
+        <v>81167</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="H20" s="7">
+        <v>210</v>
+      </c>
+      <c r="I20" s="7">
+        <v>103755</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H20" s="7">
-        <v>435</v>
-      </c>
-      <c r="I20" s="7">
-        <v>239894</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>477</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>525</v>
       </c>
       <c r="M20" s="7">
-        <v>658</v>
+        <v>333</v>
       </c>
       <c r="N20" s="7">
-        <v>392440</v>
+        <v>184922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>526</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,10 +7235,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>290</v>
+        <v>159</v>
       </c>
       <c r="D21" s="7">
-        <v>198409</v>
+        <v>104761</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6611,10 +7250,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>508</v>
+        <v>248</v>
       </c>
       <c r="I21" s="7">
-        <v>280638</v>
+        <v>122397</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6626,10 +7265,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>798</v>
+        <v>407</v>
       </c>
       <c r="N21" s="7">
-        <v>479046</v>
+        <v>227159</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6643,55 +7282,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7">
-        <v>160822</v>
+        <v>19922</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>530</v>
       </c>
       <c r="H22" s="7">
-        <v>302</v>
+        <v>35</v>
       </c>
       <c r="I22" s="7">
-        <v>210012</v>
+        <v>18213</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>532</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>486</v>
+        <v>415</v>
       </c>
       <c r="M22" s="7">
-        <v>475</v>
+        <v>66</v>
       </c>
       <c r="N22" s="7">
-        <v>370834</v>
+        <v>38135</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>487</v>
+        <v>533</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>220</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,49 +7339,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>100</v>
+      </c>
+      <c r="D23" s="7">
+        <v>60474</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="H23" s="7">
+        <v>225</v>
+      </c>
+      <c r="I23" s="7">
+        <v>110020</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="D23" s="7">
-        <v>505951</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1048</v>
-      </c>
-      <c r="I23" s="7">
-        <v>711792</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>493</v>
-      </c>
       <c r="K23" s="7" t="s">
-        <v>494</v>
+        <v>424</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>538</v>
       </c>
       <c r="M23" s="7">
-        <v>1585</v>
+        <v>325</v>
       </c>
       <c r="N23" s="7">
-        <v>1217743</v>
+        <v>170495</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>495</v>
+        <v>539</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,63 +7390,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>131</v>
+      </c>
+      <c r="D24" s="7">
+        <v>80396</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>260</v>
+      </c>
+      <c r="I24" s="7">
+        <v>128233</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>391</v>
+      </c>
+      <c r="N24" s="7">
+        <v>208630</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>173</v>
+      </c>
+      <c r="D25" s="7">
+        <v>153801</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="H25" s="7">
+        <v>302</v>
+      </c>
+      <c r="I25" s="7">
+        <v>193591</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M25" s="7">
+        <v>475</v>
+      </c>
+      <c r="N25" s="7">
+        <v>347392</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>537</v>
+      </c>
+      <c r="D26" s="7">
+        <v>485027</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1048</v>
+      </c>
+      <c r="I26" s="7">
+        <v>702246</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1585</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1187273</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>710</v>
       </c>
-      <c r="D24" s="7">
-        <v>666773</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>638828</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1350</v>
       </c>
-      <c r="I24" s="7">
-        <v>921804</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>895837</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2060</v>
       </c>
-      <c r="N24" s="7">
-        <v>1588577</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>1534665</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
